--- a/500all/speech_level/speeches_CHRG-114hhrg22565.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock, for holding this hearing, and thank Chairwoman Comstock and Chairman Smith for being here this morning and all of the witnesses for being here. As you all know, we finished up our work for a few weeks last night, so I'm glad that we're able to still hold this hearing.    Efforts to streamline and reduce the burden of administrative requirements placed on academic researchers while maintaining a strong system of accountability and scientific integrity are not new. The Federal Demonstration Partnership (FDP) began 30 years ago, and the Council on Governmental Relations, which represents and supports universities in complying with federal regulations, dates back to the post-WW II era.    However, as research budgets have flattened or declined and our best and brightest young researchers increasingly look elsewhere, the topic of reducing the administrative burden on federal research has taken on new urgency. The FDP reported that academic researchers spend 42 percent of their time on activities other than academic research, including administrative burden. That number has since been challenged, but I think we all agree with the basic premise of this hearing and all of the related reports: too much valuable time of our researchers is wasted on excessive compliance with excessive regulations. Issues like subrecipient monitoring, micropurchase threshold, biosketches, open access policies, and time and effort reporting adds up to a lot of time for researchers. I understand this from my own experiences as a college professor, through discussions with former colleagues, and from talking to researchers and research university administrators as I have served as Chair and then the Ranking Member of this subcommittee for the past eight years.    The Uniform Guidance issued by the Office of Management and Budget in December 2013 made several steps in the right direction. For example, it provided flexibility for universities to examine alternatives to traditional time and effort reporting on grants including using payroll systems to verify work performed. Inspectors General, who opposed this change, still have full authority to conduct audits of those systems to ensure accountability for federal funds. Unfortunately, the Uniform Guidance also included changes that increased administrative burden without obviously increasing accountability, such as the reduction of the micropurchase threshold for competitive bids.    Two years ago, we held a hearing to review the findings and recommendations from the National Science Board about reducing the administrative burden on academic research.    Today we are reviewing two more recent reports, one from the National Academies and the other from the GAO. In response to these reports, and working closely with the stakeholder community, I developed bipartisan legislation, H.R. 5583, to implement some of the key recommendations to Congress. This bill, the University Regulation Streamlining and Harmonization Act, would address issues around researcher biosketches, the micropurchase threshold, and other regulations on academic research.    However, the most important part of the legislation is the creation of a Research Policy Board at OMB. The board would allow members of the research community to meet with agency and OMB officials to suggest ways to streamline rules across agencies. This board would not be able to overrule or delay any actions taken by OMB, but rather would serve to give the research community a seat at the table to help advise against overly onerous research regulations both now and in the future.    This bill has received strong support from the research community, including endorsements from the Association of American Universities and the Council on Governmental Relations among others. While the clock is ticking on this Congress, I hope we will be able to implement at least some of these proposals, if not this entire bill, before the end of the year. Either way, I hope that OMB, OSTP, and federal research agencies will continue to work on the issues identified in these reports and in my legislation.    These hearings on administrative burden, along with the legislative efforts offered by myself and Chairwoman Comstock, should demonstrate clearly to the research community and agency officials alike that this Committee is engaged on this issue and will continue to provide oversight and fix problems as they are identified.    With that, I want to thank today's witnesses for your contributions to these efforts and for your testimony. I look forward to a fruitful discussion, and I yield back.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chairwoman.    Let me say on behalf of the witnesses and even on behalf of the American people, I want to thank you and the Ranking Member, Mr. Lipinski, for making a huge effort to be here this morning. Not everybody may realize that because we finished votes last night, and we will not be convening again as a Congress until after the November election, we knew a lot of people were going to be leaving town this morning and I thought we were going to have to cancel this hearing, as important as it was, and the fact that the Chairwoman and the Ranking Member said that they would stay and be here enabled us to go forward and have this hearing.    Now, I do want to point out that the Chairwoman has already passed what we could call a regulatory relief bill, and deserves congratulations for that, and there's more to come. Mr. Lipinski has a bill that we're working on, and I do have to question his motive for being here because he knows that by being here we're going to be more favorably disposed towards his legislation. But I do appreciate both his efforts to bring some sanity to the regulatory process and what the Chairwoman has done too.    The Committee has held many hearings on the regulatory overreach of agencies during this Administration. Americans from small business owners to scientists in the lab want to be free from overly burdensome regulations, not tied up in more red tape.    For several years, the research community has expressed concern that time spent on administrative and reporting requirements for federal research seriously cuts into lab time. This negatively affects the science conducted under those grants.    The Federal Government spends about $30 billion a year on research and development at our Nation's colleges and universities. Over time, a patchwork of federal laws, regulations, rules, policies, and reporting requirements have developed to manage this research.    A survey of universities found that up to 25 percent of grant funding was spent on research-related regulatory compliance--25 percent. We must ensure accountability and scientific integrity when spending taxpayer dollars on research. However, there are opportunities for Congress and agencies to streamline regulations to optimize the Nation's investment in research.    There are some commonsense recommendations to reduce governmental hurdles for our scientists. For example, when a researcher applies for a grant at the National Science Foundation, they should be able to use the same biographical information and format they use when applying for a grant at the Department of Energy or other agencies. If a researcher has a grant from the National Oceanic and Atmospheric Administration and NASA, the format for research progress reporting to both agencies should be the same.    Confusing, costly, and burdensome regulations take time and money away from research. They also make it more difficult for young, new innovators to apply and compete for federal funding. We should not lose out on developing new breakthrough ideas or new talent because of bureaucratic hurdles.    So I commend Chairwoman Comstock for holding this hearing and for her previous work on tackling regulatory relief. I look forward to working with you and our colleagues on both sides of the aisle towards developing some legislative solutions, and I mentioned Mr. Lipinski's bill a minute ago. We must continue to ensure that our Nation's research investments are efficient and effective.    Thank you, and I'll yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Faulkner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Faulkner. Thank you, Mr. Chairman. It's a pleasure to see you. I had the pleasure of being in your district at one time.    Chairwoman Comstock. I'm sorry. I have to introduce the other witnesses now, then we'll go through, so sorry for the mix-up there.</t>
   </si>
   <si>
@@ -88,19 +79,10 @@
     <t xml:space="preserve">    Dr. Faulkner. Good morning, Chairwoman Comstock and Ranking Member Lipinski, Chairman Smith. I thank you for your invitation to testify on a congressionally mandated study conducted by a committee of the National Academies.    The general message is that the continuing expansion of federal regulation is decreasing the return on the federal investment in research by diverting investigators' time and other resources away from research toward administration and compliance.    The committee has seven overarching findings: first, that effective regulation is essential to the overall health of the research enterprise; second, that most federal regulations, policies and guidance represent efforts to address important issues but often have unintended consequences needlessly encumbering the Nation's research; third, in recent decades, the amount of regulation has grown dramatically; fourth, this continuing expansion of the regulatory system diminishes the effectiveness of the Nation's investment in research; fifth, universities receive research funding from multiple agencies but approaches to similar tasks and goals such as the submission of grant proposals are not harmonized across agencies; six, that regulations sometimes have resulted when universities did not respond appropriately to investigators' transgressions; and seventh, the relationship between research universities and institutions and federal funders has long been considered a partnership yet there is no formal mechanism by which senior stakeholders from both partners can review existing or proposed policies.    Based on these findings, the committee offered four overarching recommendations: first, that the regulatory regime for federal research be reexamined and recalibrated. We recommend that Congress, OMB, federal agencies and research institutions take steps to improve efficiency. We provide many detailed possibilities.    Second, research institutions should take action to reinvigorate the research partnership and to re-instill trust.    Third, the responsibilities of the Inspector General should be rebalanced so that consideration is given both to uncovering waste, fraud, and abuse and to advising on economy, efficiency, and effectiveness.    Fourth, the government-university research partnership should be made more functional through changes in the regulatory framework.    For the remainder of my remarks I will focus on human subjects research and the proposed new regulatory framework. Midway through the committee's work, the DHHS issued a Notice of Proposed Rule Making on the Federal Policy for the Protection of Human Subjects. Over 2,000 comments were submitted in response. Most commentators brought up deficiencies and indicated that if the rule were implemented as written, it would create serious obstacles for research. From testimony and much other evidence, the committee concluded that the proposed rule is marred by omissions, an absence of essential elements, and a lack of clarity. Given that a national review has not taken place in almost forty years of human subjects research, that related research has grown tremendously, and that the complexity of the issues has greatly increased, the committee recommends that Congress authorize and the President appoint an independent, national commission to examine and to recommend updates to the ethical, legal, and institutional framework governing human subjects research.    Finally, the committee is calling upon the executive branch to withdraw the NPRM, giving the proposed commission full scope to meet its charge.    Let me turn last to the proposed new regulatory framework. The goal is to provide a mechanism that can forestall duplicative and incongruous regulations, streamline and harmonize existing regulations, and provide a means to eliminate ineffective regulations. We believe that the only clear path to strengthening the U.S. research enterprise and preparing it for continued leadership is through the establishment of a new research policy board, which would act as the primary analytical, anticipatory and coordinating forum on regulatory policy, bringing together high-level stakeholders from the research community and from federal funding agencies. We further recommend that a new position of associate director for the academic research enterprise be established in the White House OSTP. This officer would perform an essential role by focusing on the operational health of the research partnership.    For nearly 70 years, that partnership has yielded tremendous benefits for the American people, improving their economic wellbeing, health, and security. It behooves all of us to take steps to ensure that it continues to flourish.    Thank you for this opportunity.</t>
   </si>
   <si>
-    <t>Neumann</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neumann. Chairwoman Comstock, Ranking Member Lipinski, and Chairman Smith, I appreciate the opportunity to be here today to discuss the findings from our recent report on administrative requirements on federal research grants to universities.    As you know, the federal government provides billions of dollars each year to colleges and universities for research, over $27 billion in fiscal year 2015 alone. To oversee the use of these findings, Congress and federal agencies have established a variety of administrative requirements. However, the research community has raised concerns about the administrative workload and costs for researchers and universities to comply with these requirements.    Today, I would like to briefly highlight the three key findings from our report. First, we looked at selected administrative requirements to understand why they're put in place and found that they fell into two general buckets: OMB's Uniform Guidance for grants and agency-specific guidance. OMB's guidance generally focuses on protecting against fraud, waste, and abuse of funds. For example, it requires competition and documentation of purchases made with grant funds. Agency-specific guidance generally focuses on the quality and effectiveness of research. For example, NIH-funded researchers are required to disclose financial conflicts of interest to promote objectivity in the research they conduct with federal funds.    Our second key finding was that there are certain common factors that add to the workload and cost for universities to comply with these requirements. Specifically, we found that agencies vary in how they implement the same requirements causing universities to develop multiple processes to comply. We also found that funding agencies require detailed documentation as part of the grant application process, even though the likelihood of getting funded is relatively low. And some requirements have become more prescriptive such as recent changes to the Uniform Guidance that will require universities to use competitive procurement methods when purchasing any goods or services costing $3,500 or more, which universities told us will result in added workload and costs. Examples of the workload and costs universities have include purchasing and updating electronic grant management systems, hiring and training administrative staff, and then the time spent by the researchers themselves.    Our third key finding was that while OMB and the funding agencies have made continuing efforts to reduce universities' administrative workload and costs, these reductions have been limited, and we found opportunities for further improvements in a number of areas. For example, we found that agencies have not standardized certain administrative requirements across agencies such as unnecessary variations that remain in the format and content of biographical sketches as well as in budget forms and budget justifications. We also found that several funding agencies have not fully considered opportunities to streamline pre-award requirements. For example, NSF has been piling efforts to postpone certain requirements such as detailed budgets until after the grant has been awarded but other agencies in our view have not conducted agency-wide reviews for similar opportunities to postpone requirements.    Lastly, we found several areas where funding agencies could consider providing universities with more flexibility including the OMB requirements on competing purchases and NIH conflict-of-interest rules.    Based on these findings, we made four recommendations to OMB and the agencies in our review--the Department of Energy, NASA, NIH and NSF--to identify and pursue further opportunities to streamline administrative requirements on research grants to universities. The agencies generally agreed to take steps to implement our recommendations.    Chairwoman Comstock, Ranking Member Lipinski and Chairman Smith, this concludes my prepared remarks. I'm happy to respond to any questions that you may have.</t>
   </si>
   <si>
-    <t>Luther</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Luther. Good morning, Subcommittee Chairwoman Comstock, Ranking Member Lipinski, and Chairman Smith. I'll be addressing my comments both from a Duke University perspective but also I serve as the Board Chair for the Council on Governmental Relations, which is an associate of 190 research universities, medical centers, and institutes, and I also co-chair the Federal Demonstration Partnerships Administrative Cost Working Group.    I'd like to start by expressing my gratitude for the Subcommittee's interest in identifying opportunities to more effectively regulate research. Congress has long supported the research enterprise, providing almost $63 billion in research funding for fiscal year 2014 alone. Congress has also expressed concern about the amount of time and funding spent on administrative processes required for federally funded research.    The reports discussed today join several previous reports on this topic. All have come to similar conclusions, number one, that the regulation of research continues to steadily increase; number two, that there is a lack of standardization across agencies; and number three, that federally funded research could be regulated much more efficiently.    Universities are committed to working with federal partners to ensure effective oversight and efficient use of taxpayer funds. This commitment has led to a number of successes including a thoughtful development and rollout of the Uniform Guidance, and we continue to work with OMB to overcome challenges related to procurement and sub-recipient monitoring. Successful engagement has historically been heavily dependent on relationships with individual agency employees. These relationships can be extremely productive, but when the critical staff member departs, so does the productivity of the relationship.    It also frequently is the case that the university perspective is not sought and that regulations do not include material changes recommended. An example is the Common Rule. A COGR-APLU analysis of comments on the proposed changes found that 74 percent of all responses and approximately 96 percent of responses from patients and members of the research community opposed proposed changes to the biospecimens on the grounds that they would be detrimental to research and health. The Academies report suggests that the proposed revisions are marred by omissions, the absence of essential elements, and lack of clarity, and ``could be detrimental to areas of important research.'' The Academies report, the HHS Secretary's Advisory Committee on Human Research Protections, and others have called for the proposed rule to be withdrawn, yet we understand that HHS is still trying to move forward with this final rule.    Compounding the issue of engagement is a significant increase in federal regulations, 5.8 new or substantially changed regulations annually, according to the Academies report. In the last four months alone, three regulations, two significant policies, and a training requirement were issued. These new regulations and policies will cost each university anywhere from several hundred thousand to several million dollars and result in significant increase in administrative and faculty workload. Many associated costs will not be reimbursed as administrative costs long ago exceeded the 26 percent threshold. At Duke, we are approximately $25 million over this threshold annually, largely caused by the proliferation of new regulations.    Regarding other major recommendations including in the National Academies report, COGR and the Association of American Universities have strongly endorsed H.R. 5583, the University Regulatory Streamlining and Harmonization Act of 2016, and S. 2742, Promoting Biomedical Research and Public Health for Patients Act. Both would create the Research Policy Board that is the centerpiece of the Academies recommendation and the former, the appointment of an Administrator for the Academic Research Enterprise for Unified Oversight.    H.R. 5583 proposes that the Research Policy Board be composed of federal and university officials charged with reviewing existing and proposed regulations with the goal of reducing regulatory burden. No mechanism currently exists to serve this function with respect to research enterprise at large or through many examples of non-federal entities serving in a related capacity. Critical discussions with the research community coupled with Congressional and GAO oversight would support mutual accountability and increase the likelihood of achieving thoughtful and effective policy outcomes. This partnership is critical because universities' share of funding for research now constitutes almost 24 percent of total academic R&amp;D.    In summary, COGR and universities like Duke support the findings and recommendations of the Academies and GAO reports and the legislation that would implement them. We can't rely on a handful of strategic relationships to safeguard and ensure the effectiveness of the Nation's $63 billion investment in research, and as stated so appropriately in the Research and Development Efficiency Act, administrative burden is ``eroding funds available to carry out basic scientific research.'' With your support, we can achieve thoughtful, effective regulations that protect the taxpayers' dollars and maximize results.    Thank you for your time and interest, and I look forward to answering any questions you may have.</t>
-  </si>
-  <si>
-    <t>Cabrera</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Cabrera. Thank you so much, Chairwoman Comstock and Ranking Member Lipinski. Thank you, Chairman Smith, for delaying that departure and holding this very important hearing.    I bring to you the views and feedback from dozens of researchers at George Mason University. Just to set it in context, we are the largest public university in Virginia, and we are the newest and youngest member of that Carnegie tier I group of highest research universities in the country. We conduct research in areas from cybersecurity and computational sciences to proteomics, economics, criminology, psychology and many other areas, and we, like all of our peers in the group of research universities, are a great example of how that research translates not only into new cures and solutions but also into new organizations and enterprises that are driving innovation in our region and in our Nation.    Now, Chairwoman Comstock, you and some of your staff have toured our Institute of Biomedical Innovation, and we really appreciate that visit. You were able to talk with some of those conducting the research and see firsthand how research advances education, leads to jobs and to improved lives, and you saw a glimpse of that wonderful research that happens in our institution and in many others. I would be remiss, Mr. Lipinski, if I did not extend the opportunity for you and your staff to visit at your convenience and to show you what we do.    Now, it doesn't escape you that to do our work as a public university, we rely on state investments and appropriations. We rely also on private contributions and research grants, and very importantly, we depend on student tuition. As the investment from state has declined, the pressure on student tuition is creating real issues of access. The issues of regulatory efficiency and the costs that they generate at the end of the day impact students and impact the social issues around access to higher education.    Now, let me provide some specifics on the areas that the GAO report highlighted. Many of our researchers do receive awards from more than one agency. This means that they have to spend an inordinate amount of time identifying and responding to different requirements regarding proposal submissions, conflict-of-interest purchasing, subrecipient monitoring, reporting and closeout. This problem is compounded by the fact that the success rate of awards in many agencies is getting lower while the time and cost of applying is getting higher. This paradox is discouraging faculty, many of whom balance teaching, mentoring, and research loads from pursuing more research opportunities.    In terms of export controls, the Academies report correctly points out that universities including Mason continue to be concerned about efforts by the State Department to modify the definition of fundamental research in ITAR. If the result is a restricted definition of fundamental research, that may cause real problems in terms of driving innovation and bringing about the resources from around the world that sometimes are necessary to drive that innovation.    We have a great example of innovation in regulation with effort reporting. In 2011, Mason was the first of four pilot schools to participate in a payroll certification pilot under the auspices of the Federal Demonstration Partnership, and effort reporting is often cited as one of the most burdensome administrative requirements for researchers. Effort incurred across multiple activities is difficult to measure and track, and administration is very inefficient and costly.    With payroll certification, we aim to improve the efficiency and at the same time not diminish the accountability. The result of that pilot at Mason was a reduction in 85 percent in the reports produced without any negative and adverse impact in the supervision in accountability. That's a great example of how we can have smarter processes that really reduce the cost.    Finally, the Academies report calls for Congress to create a Research Policy Board, and there are many other recommendations that we endorse and support. To some extent, Madam Chair, your bill 1119, which passed the House, and your bill, Ranking Member Lipinski, implement what the National Academies is recommending, and we are grateful to both of you. Your bills will allow for broader discussion of that monster that lurks behind every rule, the law of unintended consequences. By providing a pause button or the ability to raise a red flag and means for redress and revisiting existing rules, you have done a tremendous service to the research enterprise and the Nation's future innovation.    Thank you so much.</t>
@@ -598,11 +580,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -622,13 +602,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -648,13 +626,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -674,13 +650,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -700,13 +674,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -726,13 +698,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -752,13 +722,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -778,13 +746,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -804,13 +770,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -830,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -856,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -882,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -908,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -934,13 +890,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -960,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -986,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1014,11 +964,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1040,11 +988,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1064,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1092,11 +1036,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1116,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1144,11 +1084,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1168,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1196,11 +1132,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1220,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1248,11 +1180,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1272,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1300,11 +1228,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1324,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1350,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1376,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1402,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1428,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1454,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1482,11 +1396,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1506,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1534,11 +1444,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1558,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1586,11 +1492,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1610,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1636,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1664,11 +1564,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22565.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock, for holding this hearing, and thank Chairwoman Comstock and Chairman Smith for being here this morning and all of the witnesses for being here. As you all know, we finished up our work for a few weeks last night, so I'm glad that we're able to still hold this hearing.    Efforts to streamline and reduce the burden of administrative requirements placed on academic researchers while maintaining a strong system of accountability and scientific integrity are not new. The Federal Demonstration Partnership (FDP) began 30 years ago, and the Council on Governmental Relations, which represents and supports universities in complying with federal regulations, dates back to the post-WW II era.    However, as research budgets have flattened or declined and our best and brightest young researchers increasingly look elsewhere, the topic of reducing the administrative burden on federal research has taken on new urgency. The FDP reported that academic researchers spend 42 percent of their time on activities other than academic research, including administrative burden. That number has since been challenged, but I think we all agree with the basic premise of this hearing and all of the related reports: too much valuable time of our researchers is wasted on excessive compliance with excessive regulations. Issues like subrecipient monitoring, micropurchase threshold, biosketches, open access policies, and time and effort reporting adds up to a lot of time for researchers. I understand this from my own experiences as a college professor, through discussions with former colleagues, and from talking to researchers and research university administrators as I have served as Chair and then the Ranking Member of this subcommittee for the past eight years.    The Uniform Guidance issued by the Office of Management and Budget in December 2013 made several steps in the right direction. For example, it provided flexibility for universities to examine alternatives to traditional time and effort reporting on grants including using payroll systems to verify work performed. Inspectors General, who opposed this change, still have full authority to conduct audits of those systems to ensure accountability for federal funds. Unfortunately, the Uniform Guidance also included changes that increased administrative burden without obviously increasing accountability, such as the reduction of the micropurchase threshold for competitive bids.    Two years ago, we held a hearing to review the findings and recommendations from the National Science Board about reducing the administrative burden on academic research.    Today we are reviewing two more recent reports, one from the National Academies and the other from the GAO. In response to these reports, and working closely with the stakeholder community, I developed bipartisan legislation, H.R. 5583, to implement some of the key recommendations to Congress. This bill, the University Regulation Streamlining and Harmonization Act, would address issues around researcher biosketches, the micropurchase threshold, and other regulations on academic research.    However, the most important part of the legislation is the creation of a Research Policy Board at OMB. The board would allow members of the research community to meet with agency and OMB officials to suggest ways to streamline rules across agencies. This board would not be able to overrule or delay any actions taken by OMB, but rather would serve to give the research community a seat at the table to help advise against overly onerous research regulations both now and in the future.    This bill has received strong support from the research community, including endorsements from the Association of American Universities and the Council on Governmental Relations among others. While the clock is ticking on this Congress, I hope we will be able to implement at least some of these proposals, if not this entire bill, before the end of the year. Either way, I hope that OMB, OSTP, and federal research agencies will continue to work on the issues identified in these reports and in my legislation.    These hearings on administrative burden, along with the legislative efforts offered by myself and Chairwoman Comstock, should demonstrate clearly to the research community and agency officials alike that this Committee is engaged on this issue and will continue to provide oversight and fix problems as they are identified.    With that, I want to thank today's witnesses for your contributions to these efforts and for your testimony. I look forward to a fruitful discussion, and I yield back.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chairwoman.    Let me say on behalf of the witnesses and even on behalf of the American people, I want to thank you and the Ranking Member, Mr. Lipinski, for making a huge effort to be here this morning. Not everybody may realize that because we finished votes last night, and we will not be convening again as a Congress until after the November election, we knew a lot of people were going to be leaving town this morning and I thought we were going to have to cancel this hearing, as important as it was, and the fact that the Chairwoman and the Ranking Member said that they would stay and be here enabled us to go forward and have this hearing.    Now, I do want to point out that the Chairwoman has already passed what we could call a regulatory relief bill, and deserves congratulations for that, and there's more to come. Mr. Lipinski has a bill that we're working on, and I do have to question his motive for being here because he knows that by being here we're going to be more favorably disposed towards his legislation. But I do appreciate both his efforts to bring some sanity to the regulatory process and what the Chairwoman has done too.    The Committee has held many hearings on the regulatory overreach of agencies during this Administration. Americans from small business owners to scientists in the lab want to be free from overly burdensome regulations, not tied up in more red tape.    For several years, the research community has expressed concern that time spent on administrative and reporting requirements for federal research seriously cuts into lab time. This negatively affects the science conducted under those grants.    The Federal Government spends about $30 billion a year on research and development at our Nation's colleges and universities. Over time, a patchwork of federal laws, regulations, rules, policies, and reporting requirements have developed to manage this research.    A survey of universities found that up to 25 percent of grant funding was spent on research-related regulatory compliance--25 percent. We must ensure accountability and scientific integrity when spending taxpayer dollars on research. However, there are opportunities for Congress and agencies to streamline regulations to optimize the Nation's investment in research.    There are some commonsense recommendations to reduce governmental hurdles for our scientists. For example, when a researcher applies for a grant at the National Science Foundation, they should be able to use the same biographical information and format they use when applying for a grant at the Department of Energy or other agencies. If a researcher has a grant from the National Oceanic and Atmospheric Administration and NASA, the format for research progress reporting to both agencies should be the same.    Confusing, costly, and burdensome regulations take time and money away from research. They also make it more difficult for young, new innovators to apply and compete for federal funding. We should not lose out on developing new breakthrough ideas or new talent because of bureaucratic hurdles.    So I commend Chairwoman Comstock for holding this hearing and for her previous work on tackling regulatory relief. I look forward to working with you and our colleagues on both sides of the aisle towards developing some legislative solutions, and I mentioned Mr. Lipinski's bill a minute ago. We must continue to ensure that our Nation's research investments are efficient and effective.    Thank you, and I'll yield back.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Faulkner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Faulkner. Thank you, Mr. Chairman. It's a pleasure to see you. I had the pleasure of being in your district at one time.    Chairwoman Comstock. I'm sorry. I have to introduce the other witnesses now, then we'll go through, so sorry for the mix-up there.</t>
   </si>
   <si>
@@ -79,10 +97,19 @@
     <t xml:space="preserve">    Dr. Faulkner. Good morning, Chairwoman Comstock and Ranking Member Lipinski, Chairman Smith. I thank you for your invitation to testify on a congressionally mandated study conducted by a committee of the National Academies.    The general message is that the continuing expansion of federal regulation is decreasing the return on the federal investment in research by diverting investigators' time and other resources away from research toward administration and compliance.    The committee has seven overarching findings: first, that effective regulation is essential to the overall health of the research enterprise; second, that most federal regulations, policies and guidance represent efforts to address important issues but often have unintended consequences needlessly encumbering the Nation's research; third, in recent decades, the amount of regulation has grown dramatically; fourth, this continuing expansion of the regulatory system diminishes the effectiveness of the Nation's investment in research; fifth, universities receive research funding from multiple agencies but approaches to similar tasks and goals such as the submission of grant proposals are not harmonized across agencies; six, that regulations sometimes have resulted when universities did not respond appropriately to investigators' transgressions; and seventh, the relationship between research universities and institutions and federal funders has long been considered a partnership yet there is no formal mechanism by which senior stakeholders from both partners can review existing or proposed policies.    Based on these findings, the committee offered four overarching recommendations: first, that the regulatory regime for federal research be reexamined and recalibrated. We recommend that Congress, OMB, federal agencies and research institutions take steps to improve efficiency. We provide many detailed possibilities.    Second, research institutions should take action to reinvigorate the research partnership and to re-instill trust.    Third, the responsibilities of the Inspector General should be rebalanced so that consideration is given both to uncovering waste, fraud, and abuse and to advising on economy, efficiency, and effectiveness.    Fourth, the government-university research partnership should be made more functional through changes in the regulatory framework.    For the remainder of my remarks I will focus on human subjects research and the proposed new regulatory framework. Midway through the committee's work, the DHHS issued a Notice of Proposed Rule Making on the Federal Policy for the Protection of Human Subjects. Over 2,000 comments were submitted in response. Most commentators brought up deficiencies and indicated that if the rule were implemented as written, it would create serious obstacles for research. From testimony and much other evidence, the committee concluded that the proposed rule is marred by omissions, an absence of essential elements, and a lack of clarity. Given that a national review has not taken place in almost forty years of human subjects research, that related research has grown tremendously, and that the complexity of the issues has greatly increased, the committee recommends that Congress authorize and the President appoint an independent, national commission to examine and to recommend updates to the ethical, legal, and institutional framework governing human subjects research.    Finally, the committee is calling upon the executive branch to withdraw the NPRM, giving the proposed commission full scope to meet its charge.    Let me turn last to the proposed new regulatory framework. The goal is to provide a mechanism that can forestall duplicative and incongruous regulations, streamline and harmonize existing regulations, and provide a means to eliminate ineffective regulations. We believe that the only clear path to strengthening the U.S. research enterprise and preparing it for continued leadership is through the establishment of a new research policy board, which would act as the primary analytical, anticipatory and coordinating forum on regulatory policy, bringing together high-level stakeholders from the research community and from federal funding agencies. We further recommend that a new position of associate director for the academic research enterprise be established in the White House OSTP. This officer would perform an essential role by focusing on the operational health of the research partnership.    For nearly 70 years, that partnership has yielded tremendous benefits for the American people, improving their economic wellbeing, health, and security. It behooves all of us to take steps to ensure that it continues to flourish.    Thank you for this opportunity.</t>
   </si>
   <si>
+    <t>Neumann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neumann. Chairwoman Comstock, Ranking Member Lipinski, and Chairman Smith, I appreciate the opportunity to be here today to discuss the findings from our recent report on administrative requirements on federal research grants to universities.    As you know, the federal government provides billions of dollars each year to colleges and universities for research, over $27 billion in fiscal year 2015 alone. To oversee the use of these findings, Congress and federal agencies have established a variety of administrative requirements. However, the research community has raised concerns about the administrative workload and costs for researchers and universities to comply with these requirements.    Today, I would like to briefly highlight the three key findings from our report. First, we looked at selected administrative requirements to understand why they're put in place and found that they fell into two general buckets: OMB's Uniform Guidance for grants and agency-specific guidance. OMB's guidance generally focuses on protecting against fraud, waste, and abuse of funds. For example, it requires competition and documentation of purchases made with grant funds. Agency-specific guidance generally focuses on the quality and effectiveness of research. For example, NIH-funded researchers are required to disclose financial conflicts of interest to promote objectivity in the research they conduct with federal funds.    Our second key finding was that there are certain common factors that add to the workload and cost for universities to comply with these requirements. Specifically, we found that agencies vary in how they implement the same requirements causing universities to develop multiple processes to comply. We also found that funding agencies require detailed documentation as part of the grant application process, even though the likelihood of getting funded is relatively low. And some requirements have become more prescriptive such as recent changes to the Uniform Guidance that will require universities to use competitive procurement methods when purchasing any goods or services costing $3,500 or more, which universities told us will result in added workload and costs. Examples of the workload and costs universities have include purchasing and updating electronic grant management systems, hiring and training administrative staff, and then the time spent by the researchers themselves.    Our third key finding was that while OMB and the funding agencies have made continuing efforts to reduce universities' administrative workload and costs, these reductions have been limited, and we found opportunities for further improvements in a number of areas. For example, we found that agencies have not standardized certain administrative requirements across agencies such as unnecessary variations that remain in the format and content of biographical sketches as well as in budget forms and budget justifications. We also found that several funding agencies have not fully considered opportunities to streamline pre-award requirements. For example, NSF has been piling efforts to postpone certain requirements such as detailed budgets until after the grant has been awarded but other agencies in our view have not conducted agency-wide reviews for similar opportunities to postpone requirements.    Lastly, we found several areas where funding agencies could consider providing universities with more flexibility including the OMB requirements on competing purchases and NIH conflict-of-interest rules.    Based on these findings, we made four recommendations to OMB and the agencies in our review--the Department of Energy, NASA, NIH and NSF--to identify and pursue further opportunities to streamline administrative requirements on research grants to universities. The agencies generally agreed to take steps to implement our recommendations.    Chairwoman Comstock, Ranking Member Lipinski and Chairman Smith, this concludes my prepared remarks. I'm happy to respond to any questions that you may have.</t>
   </si>
   <si>
+    <t>Luther</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Luther. Good morning, Subcommittee Chairwoman Comstock, Ranking Member Lipinski, and Chairman Smith. I'll be addressing my comments both from a Duke University perspective but also I serve as the Board Chair for the Council on Governmental Relations, which is an associate of 190 research universities, medical centers, and institutes, and I also co-chair the Federal Demonstration Partnerships Administrative Cost Working Group.    I'd like to start by expressing my gratitude for the Subcommittee's interest in identifying opportunities to more effectively regulate research. Congress has long supported the research enterprise, providing almost $63 billion in research funding for fiscal year 2014 alone. Congress has also expressed concern about the amount of time and funding spent on administrative processes required for federally funded research.    The reports discussed today join several previous reports on this topic. All have come to similar conclusions, number one, that the regulation of research continues to steadily increase; number two, that there is a lack of standardization across agencies; and number three, that federally funded research could be regulated much more efficiently.    Universities are committed to working with federal partners to ensure effective oversight and efficient use of taxpayer funds. This commitment has led to a number of successes including a thoughtful development and rollout of the Uniform Guidance, and we continue to work with OMB to overcome challenges related to procurement and sub-recipient monitoring. Successful engagement has historically been heavily dependent on relationships with individual agency employees. These relationships can be extremely productive, but when the critical staff member departs, so does the productivity of the relationship.    It also frequently is the case that the university perspective is not sought and that regulations do not include material changes recommended. An example is the Common Rule. A COGR-APLU analysis of comments on the proposed changes found that 74 percent of all responses and approximately 96 percent of responses from patients and members of the research community opposed proposed changes to the biospecimens on the grounds that they would be detrimental to research and health. The Academies report suggests that the proposed revisions are marred by omissions, the absence of essential elements, and lack of clarity, and ``could be detrimental to areas of important research.'' The Academies report, the HHS Secretary's Advisory Committee on Human Research Protections, and others have called for the proposed rule to be withdrawn, yet we understand that HHS is still trying to move forward with this final rule.    Compounding the issue of engagement is a significant increase in federal regulations, 5.8 new or substantially changed regulations annually, according to the Academies report. In the last four months alone, three regulations, two significant policies, and a training requirement were issued. These new regulations and policies will cost each university anywhere from several hundred thousand to several million dollars and result in significant increase in administrative and faculty workload. Many associated costs will not be reimbursed as administrative costs long ago exceeded the 26 percent threshold. At Duke, we are approximately $25 million over this threshold annually, largely caused by the proliferation of new regulations.    Regarding other major recommendations including in the National Academies report, COGR and the Association of American Universities have strongly endorsed H.R. 5583, the University Regulatory Streamlining and Harmonization Act of 2016, and S. 2742, Promoting Biomedical Research and Public Health for Patients Act. Both would create the Research Policy Board that is the centerpiece of the Academies recommendation and the former, the appointment of an Administrator for the Academic Research Enterprise for Unified Oversight.    H.R. 5583 proposes that the Research Policy Board be composed of federal and university officials charged with reviewing existing and proposed regulations with the goal of reducing regulatory burden. No mechanism currently exists to serve this function with respect to research enterprise at large or through many examples of non-federal entities serving in a related capacity. Critical discussions with the research community coupled with Congressional and GAO oversight would support mutual accountability and increase the likelihood of achieving thoughtful and effective policy outcomes. This partnership is critical because universities' share of funding for research now constitutes almost 24 percent of total academic R&amp;D.    In summary, COGR and universities like Duke support the findings and recommendations of the Academies and GAO reports and the legislation that would implement them. We can't rely on a handful of strategic relationships to safeguard and ensure the effectiveness of the Nation's $63 billion investment in research, and as stated so appropriately in the Research and Development Efficiency Act, administrative burden is ``eroding funds available to carry out basic scientific research.'' With your support, we can achieve thoughtful, effective regulations that protect the taxpayers' dollars and maximize results.    Thank you for your time and interest, and I look forward to answering any questions you may have.</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Cabrera. Thank you so much, Chairwoman Comstock and Ranking Member Lipinski. Thank you, Chairman Smith, for delaying that departure and holding this very important hearing.    I bring to you the views and feedback from dozens of researchers at George Mason University. Just to set it in context, we are the largest public university in Virginia, and we are the newest and youngest member of that Carnegie tier I group of highest research universities in the country. We conduct research in areas from cybersecurity and computational sciences to proteomics, economics, criminology, psychology and many other areas, and we, like all of our peers in the group of research universities, are a great example of how that research translates not only into new cures and solutions but also into new organizations and enterprises that are driving innovation in our region and in our Nation.    Now, Chairwoman Comstock, you and some of your staff have toured our Institute of Biomedical Innovation, and we really appreciate that visit. You were able to talk with some of those conducting the research and see firsthand how research advances education, leads to jobs and to improved lives, and you saw a glimpse of that wonderful research that happens in our institution and in many others. I would be remiss, Mr. Lipinski, if I did not extend the opportunity for you and your staff to visit at your convenience and to show you what we do.    Now, it doesn't escape you that to do our work as a public university, we rely on state investments and appropriations. We rely also on private contributions and research grants, and very importantly, we depend on student tuition. As the investment from state has declined, the pressure on student tuition is creating real issues of access. The issues of regulatory efficiency and the costs that they generate at the end of the day impact students and impact the social issues around access to higher education.    Now, let me provide some specifics on the areas that the GAO report highlighted. Many of our researchers do receive awards from more than one agency. This means that they have to spend an inordinate amount of time identifying and responding to different requirements regarding proposal submissions, conflict-of-interest purchasing, subrecipient monitoring, reporting and closeout. This problem is compounded by the fact that the success rate of awards in many agencies is getting lower while the time and cost of applying is getting higher. This paradox is discouraging faculty, many of whom balance teaching, mentoring, and research loads from pursuing more research opportunities.    In terms of export controls, the Academies report correctly points out that universities including Mason continue to be concerned about efforts by the State Department to modify the definition of fundamental research in ITAR. If the result is a restricted definition of fundamental research, that may cause real problems in terms of driving innovation and bringing about the resources from around the world that sometimes are necessary to drive that innovation.    We have a great example of innovation in regulation with effort reporting. In 2011, Mason was the first of four pilot schools to participate in a payroll certification pilot under the auspices of the Federal Demonstration Partnership, and effort reporting is often cited as one of the most burdensome administrative requirements for researchers. Effort incurred across multiple activities is difficult to measure and track, and administration is very inefficient and costly.    With payroll certification, we aim to improve the efficiency and at the same time not diminish the accountability. The result of that pilot at Mason was a reduction in 85 percent in the reports produced without any negative and adverse impact in the supervision in accountability. That's a great example of how we can have smarter processes that really reduce the cost.    Finally, the Academies report calls for Congress to create a Research Policy Board, and there are many other recommendations that we endorse and support. To some extent, Madam Chair, your bill 1119, which passed the House, and your bill, Ranking Member Lipinski, implement what the National Academies is recommending, and we are grateful to both of you. Your bills will allow for broader discussion of that monster that lurks behind every rule, the law of unintended consequences. By providing a pause button or the ability to raise a red flag and means for redress and revisiting existing rules, you have done a tremendous service to the research enterprise and the Nation's future innovation.    Thank you so much.</t>
@@ -530,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,1013 +587,1174 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22565.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lipinski</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>400381</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Smith</t>
@@ -557,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,1171 +599,1248 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
